--- a/biology/Botanique/Marronnier_glabre/Marronnier_glabre.xlsx
+++ b/biology/Botanique/Marronnier_glabre/Marronnier_glabre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aesculus glabra
 Le Marronnier glabre (Aesculus glabra), aussi appelé Pavier de l'Ohio, est une espèce de marronnier (Aesculus) originaire de l'Est de l'Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de diffusion aux États-Unis va, au Nord, de la Pennsylvanie au Sud-Est du Nebraska, en passant par l'Ohio dont il a pris le nom, et au Sud, du Nord-Est du Texas au Nord de la Géorgie. Il en existe également quelques-uns localisés dans l'extrême Sud-Ouest de l'Ontario et du Québec au Canada.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavier de l'Ohio est un arbre de taille moyenne à feuilles caduques qui peut atteindre une hauteur de 15 à 25 mètres.
 Les feuilles composées-palmées comportent cinq folioles (rarement sept) et mesurent de 8 à 16 cm de long et de large.
@@ -577,7 +593,9 @@
           <t>Utilisation et symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pavier de l'Ohio est l'arbre officiel de l'Ohio. Il est aussi utilisé comme surnom des équipes sportives de l'Université d'État de l'Ohio, en Anglais, Buckeyes.
 </t>
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (22 juin 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (22 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 Aesculus glabra subsp. arguta (Buckley) A.E. Murray
 Aesculus glabra subsp. glabra
 Aesculus glabra var. arguta (Buckley) B.L. Rob.
